--- a/csv/svm/svm_pc200fdasigmoid_final.xlsx
+++ b/csv/svm/svm_pc200fdasigmoid_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>0.014344382763731173</v>
       </c>
     </row>
   </sheetData>
@@ -224,10 +224,10 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -247,10 +247,10 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
